--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2140.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2140.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.975390054644109</v>
+        <v>0.5779385566711426</v>
       </c>
       <c r="B1">
+        <v>1.184473872184753</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>1.935895801439903</v>
-      </c>
       <c r="D1">
-        <v>0.8636282820186163</v>
+        <v>2.735146760940552</v>
       </c>
       <c r="E1">
-        <v>0.6108628964611235</v>
+        <v>1.453469395637512</v>
       </c>
     </row>
   </sheetData>
